--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2057415.795126483</v>
+        <v>2053232.874257385</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2295956.10121807</v>
+        <v>2341983.383206077</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791238</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722909.545116039</v>
+        <v>8722117.316150926</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.0104152084796</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18.93129518630144</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -719,7 +719,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>71.24719361297659</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>51.94707680658001</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>72.55567497641756</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>118.3788231455862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>243.4281184309199</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4102678419891658</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>25.3658788079369</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>47.21676074617812</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>39.71534783581671</v>
       </c>
       <c r="U7" t="n">
-        <v>274.9268295190242</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>368.8283751356311</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1148,7 +1148,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>91.37649775417424</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.52529077486058</v>
+        <v>34.10250295830922</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>43.01721371098705</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.834605863226</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1427,7 +1427,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>273.2977702070789</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>87.52601544627326</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>28.60476511161619</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541617</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>130.9685878045032</v>
+        <v>177.026928914023</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2795,22 +2795,22 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211824</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>197.2266210107405</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825603</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548577</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.9624712641433</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404343</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954308</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>6.271381985373154</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419572</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007175</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035416</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219388</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507299</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484026</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.5802388872324</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380444</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497637</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943229</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049596</v>
@@ -3004,13 +3004,13 @@
         <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738176</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
         <v>137.7482445205302</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.1280864677958</v>
+        <v>289.058287459757</v>
       </c>
       <c r="C41" t="n">
-        <v>276.8820346956116</v>
+        <v>281.8122356875728</v>
       </c>
       <c r="D41" t="n">
-        <v>269.2250057090118</v>
+        <v>274.1552067009731</v>
       </c>
       <c r="E41" t="n">
-        <v>286.1959778481338</v>
+        <v>248.7989181865678</v>
       </c>
       <c r="F41" t="n">
-        <v>300.3637822988349</v>
+        <v>305.2939832907961</v>
       </c>
       <c r="G41" t="n">
-        <v>244.6077853910361</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>208.4805081426871</v>
+        <v>213.4107091346484</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>29.52223494393394</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.41690871383406</v>
       </c>
       <c r="T41" t="n">
-        <v>108.9038846296904</v>
+        <v>113.8340856216516</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>145.7636914752215</v>
       </c>
       <c r="V41" t="n">
-        <v>226.3240294170297</v>
+        <v>231.2542304089909</v>
       </c>
       <c r="W41" t="n">
-        <v>254.9273328949083</v>
+        <v>259.8575338868695</v>
       </c>
       <c r="X41" t="n">
-        <v>273.1963672297866</v>
+        <v>278.1265682217478</v>
       </c>
       <c r="Y41" t="n">
-        <v>280.1640902021178</v>
+        <v>285.094291194079</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.99422671790117</v>
+        <v>75.92442770986239</v>
       </c>
       <c r="C43" t="n">
-        <v>56.14135496818358</v>
+        <v>61.07155596014479</v>
       </c>
       <c r="D43" t="n">
-        <v>41.7150701800233</v>
+        <v>46.64527117198452</v>
       </c>
       <c r="E43" t="n">
-        <v>41.64151223290241</v>
+        <v>46.57171322486363</v>
       </c>
       <c r="F43" t="n">
-        <v>43.39096365266968</v>
+        <v>48.3211646446309</v>
       </c>
       <c r="G43" t="n">
-        <v>54.20980157506182</v>
+        <v>59.14000256702303</v>
       </c>
       <c r="H43" t="n">
-        <v>41.56205374163386</v>
+        <v>46.49225473359508</v>
       </c>
       <c r="I43" t="n">
-        <v>19.40176932280579</v>
+        <v>24.33197031476701</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.30026768726171</v>
+        <v>15.23046867922292</v>
       </c>
       <c r="S43" t="n">
-        <v>88.42621119278903</v>
+        <v>93.35641218475024</v>
       </c>
       <c r="T43" t="n">
-        <v>121.0001495269611</v>
+        <v>125.9303505189223</v>
       </c>
       <c r="U43" t="n">
-        <v>170.222692054031</v>
+        <v>175.1528930459922</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9578399408969</v>
+        <v>155.8880409328581</v>
       </c>
       <c r="W43" t="n">
-        <v>168.1353862616471</v>
+        <v>173.0655872536083</v>
       </c>
       <c r="X43" t="n">
-        <v>119.3778072083596</v>
+        <v>124.3080082003208</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.519228785036</v>
+        <v>113.4494297769972</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>284.1280864677958</v>
+        <v>289.058287459757</v>
       </c>
       <c r="C44" t="n">
-        <v>276.8820346956117</v>
+        <v>281.8122356875729</v>
       </c>
       <c r="D44" t="n">
-        <v>269.2250057090118</v>
+        <v>230.5781816775113</v>
       </c>
       <c r="E44" t="n">
-        <v>286.1959778481338</v>
+        <v>291.126178840095</v>
       </c>
       <c r="F44" t="n">
-        <v>300.363782298835</v>
+        <v>305.2939832907962</v>
       </c>
       <c r="G44" t="n">
-        <v>167.5290437171906</v>
+        <v>301.599617162351</v>
       </c>
       <c r="H44" t="n">
-        <v>208.4805081426872</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>24.59203395197275</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.48670772187288</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>108.9038846296904</v>
+        <v>113.8340856216516</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>145.7636914752215</v>
       </c>
       <c r="V44" t="n">
-        <v>226.3240294170297</v>
+        <v>231.2542304089909</v>
       </c>
       <c r="W44" t="n">
-        <v>254.9273328949083</v>
+        <v>259.8575338868695</v>
       </c>
       <c r="X44" t="n">
-        <v>273.1963672297867</v>
+        <v>278.1265682217479</v>
       </c>
       <c r="Y44" t="n">
-        <v>280.1640902021178</v>
+        <v>285.094291194079</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.9942267179012</v>
+        <v>75.92442770986241</v>
       </c>
       <c r="C46" t="n">
-        <v>56.14135496818361</v>
+        <v>61.07155596014482</v>
       </c>
       <c r="D46" t="n">
-        <v>41.71507018002333</v>
+        <v>46.64527117198455</v>
       </c>
       <c r="E46" t="n">
-        <v>41.64151223290244</v>
+        <v>46.57171322486366</v>
       </c>
       <c r="F46" t="n">
-        <v>43.39096365266971</v>
+        <v>48.32116464463093</v>
       </c>
       <c r="G46" t="n">
-        <v>54.20980157506185</v>
+        <v>59.14000256702306</v>
       </c>
       <c r="H46" t="n">
-        <v>41.56205374163389</v>
+        <v>46.4922547335951</v>
       </c>
       <c r="I46" t="n">
-        <v>19.40176932280582</v>
+        <v>24.33197031476703</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.30026768726174</v>
+        <v>15.23046867922295</v>
       </c>
       <c r="S46" t="n">
-        <v>88.42621119278905</v>
+        <v>93.35641218475027</v>
       </c>
       <c r="T46" t="n">
-        <v>121.0001495269611</v>
+        <v>125.9303505189224</v>
       </c>
       <c r="U46" t="n">
-        <v>170.222692054031</v>
+        <v>175.1528930459922</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9578399408969</v>
+        <v>155.8880409328582</v>
       </c>
       <c r="W46" t="n">
-        <v>168.1353862616471</v>
+        <v>173.0655872536083</v>
       </c>
       <c r="X46" t="n">
-        <v>119.3778072083597</v>
+        <v>124.3080082003209</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.519228785036</v>
+        <v>113.4494297769972</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>791.0820057379503</v>
+        <v>947.0171529330418</v>
       </c>
       <c r="C2" t="n">
-        <v>791.0820057379503</v>
+        <v>927.8946325428383</v>
       </c>
       <c r="D2" t="n">
-        <v>791.0820057379503</v>
+        <v>927.8946325428383</v>
       </c>
       <c r="E2" t="n">
-        <v>791.0820057379503</v>
+        <v>927.8946325428383</v>
       </c>
       <c r="F2" t="n">
-        <v>374.1875672679281</v>
+        <v>915.0405981132201</v>
       </c>
       <c r="G2" t="n">
-        <v>365.0652157963353</v>
+        <v>501.8778426012233</v>
       </c>
       <c r="H2" t="n">
-        <v>40.98216536282601</v>
+        <v>177.7947921677139</v>
       </c>
       <c r="I2" t="n">
-        <v>40.98216536282601</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="J2" t="n">
-        <v>40.98216536282601</v>
+        <v>104.2908920195804</v>
       </c>
       <c r="K2" t="n">
-        <v>40.98216536282601</v>
+        <v>463.2732480470422</v>
       </c>
       <c r="L2" t="n">
-        <v>534.3024570813549</v>
+        <v>951.5619793917538</v>
       </c>
       <c r="M2" t="n">
-        <v>1041.456753446327</v>
+        <v>951.5619793917538</v>
       </c>
       <c r="N2" t="n">
-        <v>1548.611049811298</v>
+        <v>1439.850710736465</v>
       </c>
       <c r="O2" t="n">
-        <v>1988.650650703627</v>
+        <v>1439.850710736465</v>
       </c>
       <c r="P2" t="n">
-        <v>1988.650650703627</v>
+        <v>1788.038202867987</v>
       </c>
       <c r="Q2" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008936</v>
       </c>
       <c r="R2" t="n">
-        <v>2049.1082681413</v>
+        <v>1934.890849294457</v>
       </c>
       <c r="S2" t="n">
-        <v>2049.1082681413</v>
+        <v>1768.377294235508</v>
       </c>
       <c r="T2" t="n">
-        <v>1825.607665700717</v>
+        <v>1544.876691794925</v>
       </c>
       <c r="U2" t="n">
-        <v>1569.854936135316</v>
+        <v>1289.123962229523</v>
       </c>
       <c r="V2" t="n">
-        <v>1227.748126838834</v>
+        <v>947.0171529330418</v>
       </c>
       <c r="W2" t="n">
-        <v>856.7490918071217</v>
+        <v>947.0171529330418</v>
       </c>
       <c r="X2" t="n">
-        <v>856.7490918071217</v>
+        <v>947.0171529330418</v>
       </c>
       <c r="Y2" t="n">
-        <v>856.7490918071217</v>
+        <v>947.0171529330418</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.1387163056957</v>
+        <v>688.169427960302</v>
       </c>
       <c r="C3" t="n">
-        <v>379.4844858657879</v>
+        <v>688.169427960302</v>
       </c>
       <c r="D3" t="n">
-        <v>249.3955184872682</v>
+        <v>558.0804605817823</v>
       </c>
       <c r="E3" t="n">
-        <v>112.9490275981559</v>
+        <v>421.63396969267</v>
       </c>
       <c r="F3" t="n">
-        <v>40.98216536282601</v>
+        <v>297.2021635758018</v>
       </c>
       <c r="G3" t="n">
-        <v>40.98216536282601</v>
+        <v>177.1423456476662</v>
       </c>
       <c r="H3" t="n">
-        <v>40.98216536282601</v>
+        <v>88.84492924826712</v>
       </c>
       <c r="I3" t="n">
-        <v>40.98216536282601</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="J3" t="n">
-        <v>40.98216536282601</v>
+        <v>152.5726574799061</v>
       </c>
       <c r="K3" t="n">
-        <v>360.7213114250525</v>
+        <v>152.5726574799061</v>
       </c>
       <c r="L3" t="n">
-        <v>844.2873973233657</v>
+        <v>636.1387433782194</v>
       </c>
       <c r="M3" t="n">
-        <v>1351.441693688338</v>
+        <v>1124.427474722931</v>
       </c>
       <c r="N3" t="n">
-        <v>1858.595990053309</v>
+        <v>1612.716206067643</v>
       </c>
       <c r="O3" t="n">
-        <v>2049.1082681413</v>
+        <v>1612.716206067643</v>
       </c>
       <c r="P3" t="n">
-        <v>2049.1082681413</v>
+        <v>1738.518671454045</v>
       </c>
       <c r="Q3" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008936</v>
       </c>
       <c r="R3" t="n">
-        <v>2025.191225039365</v>
+        <v>1948.966719907</v>
       </c>
       <c r="S3" t="n">
-        <v>1890.260547939234</v>
+        <v>1896.494925152879</v>
       </c>
       <c r="T3" t="n">
-        <v>1713.276736138142</v>
+        <v>1719.511113351787</v>
       </c>
       <c r="U3" t="n">
-        <v>1503.213592816784</v>
+        <v>1509.447970030429</v>
       </c>
       <c r="V3" t="n">
-        <v>1280.673591187851</v>
+        <v>1286.907968401496</v>
       </c>
       <c r="W3" t="n">
-        <v>1050.556345321138</v>
+        <v>1056.790722534783</v>
       </c>
       <c r="X3" t="n">
-        <v>861.2492676711497</v>
+        <v>867.4836448847948</v>
       </c>
       <c r="Y3" t="n">
-        <v>681.935050746657</v>
+        <v>688.169427960302</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>503.8940522551618</v>
+        <v>112.7462358424187</v>
       </c>
       <c r="C4" t="n">
-        <v>503.8940522551618</v>
+        <v>112.7462358424187</v>
       </c>
       <c r="D4" t="n">
-        <v>348.2609391576765</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="E4" t="n">
-        <v>348.2609391576765</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="F4" t="n">
-        <v>190.9350043706495</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="G4" t="n">
-        <v>190.9350043706495</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="H4" t="n">
-        <v>190.9350043706495</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="I4" t="n">
-        <v>71.36043553672405</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="J4" t="n">
-        <v>40.98216536282601</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="K4" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701206</v>
       </c>
       <c r="L4" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439204</v>
       </c>
       <c r="M4" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821844</v>
       </c>
       <c r="N4" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133937</v>
       </c>
       <c r="O4" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551017</v>
       </c>
       <c r="P4" t="n">
-        <v>939.0069915343274</v>
+        <v>937.4825014316802</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.4291879043784</v>
+        <v>940.9046978017312</v>
       </c>
       <c r="R4" t="n">
-        <v>942.4291879043784</v>
+        <v>817.0037084343082</v>
       </c>
       <c r="S4" t="n">
-        <v>739.6131040869277</v>
+        <v>817.0037084343082</v>
       </c>
       <c r="T4" t="n">
-        <v>503.8940522551618</v>
+        <v>581.2846566025423</v>
       </c>
       <c r="U4" t="n">
-        <v>503.8940522551618</v>
+        <v>581.2846566025423</v>
       </c>
       <c r="V4" t="n">
-        <v>503.8940522551618</v>
+        <v>581.2846566025423</v>
       </c>
       <c r="W4" t="n">
-        <v>503.8940522551618</v>
+        <v>297.95425453372</v>
       </c>
       <c r="X4" t="n">
-        <v>503.8940522551618</v>
+        <v>297.95425453372</v>
       </c>
       <c r="Y4" t="n">
-        <v>503.8940522551618</v>
+        <v>297.95425453372</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.613522429903</v>
+        <v>307.3210494754501</v>
       </c>
       <c r="C5" t="n">
-        <v>1255.438020932834</v>
+        <v>61.43406116138966</v>
       </c>
       <c r="D5" t="n">
-        <v>869.9968921495017</v>
+        <v>61.43406116138966</v>
       </c>
       <c r="E5" t="n">
-        <v>467.4133672660462</v>
+        <v>61.43406116138966</v>
       </c>
       <c r="F5" t="n">
-        <v>50.518928796024</v>
+        <v>48.58002673177148</v>
       </c>
       <c r="G5" t="n">
-        <v>41.39657732443123</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="H5" t="n">
-        <v>41.39657732443123</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="I5" t="n">
-        <v>40.98216536282601</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="J5" t="n">
-        <v>40.98216536282601</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="K5" t="n">
-        <v>40.98216536282601</v>
+        <v>398.4400312876405</v>
       </c>
       <c r="L5" t="n">
-        <v>534.3024570813549</v>
+        <v>886.7287626323521</v>
       </c>
       <c r="M5" t="n">
-        <v>1041.456753446327</v>
+        <v>886.7287626323521</v>
       </c>
       <c r="N5" t="n">
-        <v>1516.07521586883</v>
+        <v>1347.998601975659</v>
       </c>
       <c r="O5" t="n">
-        <v>1516.07521586883</v>
+        <v>1788.038202867987</v>
       </c>
       <c r="P5" t="n">
-        <v>1864.262708000352</v>
+        <v>1788.038202867987</v>
       </c>
       <c r="Q5" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008936</v>
       </c>
       <c r="R5" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008936</v>
       </c>
       <c r="S5" t="n">
-        <v>2049.1082681413</v>
+        <v>1806.370207949986</v>
       </c>
       <c r="T5" t="n">
-        <v>2049.1082681413</v>
+        <v>1806.370207949986</v>
       </c>
       <c r="U5" t="n">
-        <v>2049.1082681413</v>
+        <v>1806.370207949986</v>
       </c>
       <c r="V5" t="n">
-        <v>2049.1082681413</v>
+        <v>1464.263398653505</v>
       </c>
       <c r="W5" t="n">
-        <v>2049.1082681413</v>
+        <v>1093.264363621792</v>
       </c>
       <c r="X5" t="n">
-        <v>2049.1082681413</v>
+        <v>703.811758554849</v>
       </c>
       <c r="Y5" t="n">
-        <v>2049.1082681413</v>
+        <v>307.3210494754501</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840.3481485028569</v>
+        <v>838.8236584002098</v>
       </c>
       <c r="C6" t="n">
-        <v>689.6939180629491</v>
+        <v>688.169427960302</v>
       </c>
       <c r="D6" t="n">
-        <v>559.6049506844295</v>
+        <v>558.0804605817823</v>
       </c>
       <c r="E6" t="n">
-        <v>423.1584597953172</v>
+        <v>421.63396969267</v>
       </c>
       <c r="F6" t="n">
-        <v>298.7266536784491</v>
+        <v>297.2021635758018</v>
       </c>
       <c r="G6" t="n">
-        <v>178.6668357503135</v>
+        <v>177.1423456476662</v>
       </c>
       <c r="H6" t="n">
-        <v>90.36941935091443</v>
+        <v>88.84492924826712</v>
       </c>
       <c r="I6" t="n">
-        <v>40.98216536282601</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="J6" t="n">
-        <v>154.0971475825534</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="K6" t="n">
-        <v>154.0971475825534</v>
+        <v>359.1968213224051</v>
       </c>
       <c r="L6" t="n">
-        <v>637.6632334808667</v>
+        <v>359.1968213224051</v>
       </c>
       <c r="M6" t="n">
-        <v>637.6632334808667</v>
+        <v>847.4855526671167</v>
       </c>
       <c r="N6" t="n">
-        <v>901.9675115050405</v>
+        <v>1078.973662947827</v>
       </c>
       <c r="O6" t="n">
-        <v>1409.121807870012</v>
+        <v>1567.262394292538</v>
       </c>
       <c r="P6" t="n">
-        <v>1814.74317658641</v>
+        <v>1972.883763008936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008936</v>
       </c>
       <c r="R6" t="n">
-        <v>2049.1082681413</v>
+        <v>1948.966719907</v>
       </c>
       <c r="S6" t="n">
-        <v>2049.1082681413</v>
+        <v>1814.036042806869</v>
       </c>
       <c r="T6" t="n">
-        <v>2023.486168335304</v>
+        <v>1637.052231005777</v>
       </c>
       <c r="U6" t="n">
-        <v>1813.423025013945</v>
+        <v>1589.358533282365</v>
       </c>
       <c r="V6" t="n">
-        <v>1590.883023385012</v>
+        <v>1589.358533282365</v>
       </c>
       <c r="W6" t="n">
-        <v>1360.765777518299</v>
+        <v>1359.241287415652</v>
       </c>
       <c r="X6" t="n">
-        <v>1171.458699868311</v>
+        <v>1169.934209765664</v>
       </c>
       <c r="Y6" t="n">
-        <v>992.1444829438183</v>
+        <v>990.6199928411711</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.98216536282601</v>
+        <v>225.469058531562</v>
       </c>
       <c r="C7" t="n">
-        <v>40.98216536282601</v>
+        <v>225.469058531562</v>
       </c>
       <c r="D7" t="n">
-        <v>40.98216536282601</v>
+        <v>69.83594543407676</v>
       </c>
       <c r="E7" t="n">
-        <v>40.98216536282601</v>
+        <v>69.83594543407676</v>
       </c>
       <c r="F7" t="n">
-        <v>40.98216536282601</v>
+        <v>69.83594543407676</v>
       </c>
       <c r="G7" t="n">
-        <v>40.98216536282601</v>
+        <v>69.83594543407676</v>
       </c>
       <c r="H7" t="n">
-        <v>40.98216536282601</v>
+        <v>69.83594543407676</v>
       </c>
       <c r="I7" t="n">
-        <v>40.98216536282601</v>
+        <v>69.83594543407676</v>
       </c>
       <c r="J7" t="n">
-        <v>40.98216536282601</v>
+        <v>39.45767526017871</v>
       </c>
       <c r="K7" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701206</v>
       </c>
       <c r="L7" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439204</v>
       </c>
       <c r="M7" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821844</v>
       </c>
       <c r="N7" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133937</v>
       </c>
       <c r="O7" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551017</v>
       </c>
       <c r="P7" t="n">
-        <v>939.0069915343274</v>
+        <v>937.4825014316802</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.9046978017312</v>
       </c>
       <c r="R7" t="n">
-        <v>942.4291879043784</v>
+        <v>817.0037084343082</v>
       </c>
       <c r="S7" t="n">
-        <v>739.6131040869277</v>
+        <v>817.0037084343082</v>
       </c>
       <c r="T7" t="n">
-        <v>503.8940522551618</v>
+        <v>776.8871954688368</v>
       </c>
       <c r="U7" t="n">
-        <v>226.1901840541273</v>
+        <v>491.4484037107378</v>
       </c>
       <c r="V7" t="n">
-        <v>226.1901840541273</v>
+        <v>225.469058531562</v>
       </c>
       <c r="W7" t="n">
-        <v>226.1901840541273</v>
+        <v>225.469058531562</v>
       </c>
       <c r="X7" t="n">
-        <v>226.1901840541273</v>
+        <v>225.469058531562</v>
       </c>
       <c r="Y7" t="n">
-        <v>226.1901840541273</v>
+        <v>225.469058531562</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1358.797017469107</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C8" t="n">
-        <v>965.6215159720373</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="D8" t="n">
-        <v>580.180387188705</v>
+        <v>702.5094904747293</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>299.9259655912738</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>287.0719311616556</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>277.9495796900629</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2071.902861797301</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1729.796052500819</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>1358.797017469107</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>1358.797017469107</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1358.797017469107</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2900019614187</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
-        <v>684.084884027408</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>528.4517709299226</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>237.3930558841897</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1598.67307041405</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.438250204169</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1009.937802708025</v>
+        <v>731.4357765463913</v>
       </c>
       <c r="E11" t="n">
-        <v>702.2949591117579</v>
+        <v>423.7929329501242</v>
       </c>
       <c r="F11" t="n">
         <v>380.341201928924</v>
@@ -5036,13 +5036,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3065.719409586356</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2937.159488432961</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2776.347440154748</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2776.347440154748</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2500.289086410224</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2205.777162630469</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.227134838259</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5121,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>803.0057595505241</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082776</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E13" t="n">
         <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445332</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311667</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5197,34 +5197,34 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757664</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791389</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.805091346976</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.046087107758</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592129</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1856.709141693317</v>
+        <v>1625.725108676625</v>
       </c>
       <c r="C14" t="n">
-        <v>1558.474321483436</v>
+        <v>1327.490288466743</v>
       </c>
       <c r="D14" t="n">
-        <v>1267.973873987292</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>960.3310303910248</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>638.3772732081909</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>320.1551989833824</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>91.01282983706137</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>3034.383511434015</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>3034.383511434015</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2758.325157689491</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2463.813233909736</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y14" t="n">
-        <v>2162.263206117525</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>84.60386270860994</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>568.1699486069232</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082776</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979807</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311671</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,19 +5437,19 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
@@ -5476,10 +5476,10 @@
         <v>850.66272518521</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592129</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5525,7 +5525,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,10 +5534,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
         <v>3071.119566829236</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5595,22 +5595,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K19" t="n">
-        <v>278.5901810446702</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>442.71782091847</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>629.009399256734</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2009.716291882317</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5923,37 +5923,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924224</v>
@@ -5987,19 +5987,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6154,19 +6154,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1877.542679919436</v>
+        <v>1835.670734401736</v>
       </c>
       <c r="C26" t="n">
-        <v>1579.307859709555</v>
+        <v>1537.435914191855</v>
       </c>
       <c r="D26" t="n">
-        <v>1288.80741221341</v>
+        <v>1246.935466695711</v>
       </c>
       <c r="E26" t="n">
-        <v>981.1645686171433</v>
+        <v>939.2926230994437</v>
       </c>
       <c r="F26" t="n">
-        <v>659.2108114343094</v>
+        <v>617.3388659166098</v>
       </c>
       <c r="G26" t="n">
-        <v>340.988737209501</v>
+        <v>299.1167916918014</v>
       </c>
       <c r="H26" t="n">
-        <v>111.8463680631799</v>
+        <v>69.97442254548042</v>
       </c>
       <c r="I26" t="n">
-        <v>68.44993244283313</v>
+        <v>69.97442254548042</v>
       </c>
       <c r="J26" t="n">
-        <v>213.0997053516612</v>
+        <v>214.6241954543085</v>
       </c>
       <c r="K26" t="n">
-        <v>572.082061379123</v>
+        <v>573.6065514817703</v>
       </c>
       <c r="L26" t="n">
-        <v>1065.402353097652</v>
+        <v>1159.978204929872</v>
       </c>
       <c r="M26" t="n">
-        <v>1611.403253142233</v>
+        <v>1755.9199600146</v>
       </c>
       <c r="N26" t="n">
-        <v>2232.265898509268</v>
+        <v>2376.782605381635</v>
       </c>
       <c r="O26" t="n">
-        <v>2672.305499401597</v>
+        <v>2909.873568003537</v>
       </c>
       <c r="P26" t="n">
-        <v>3088.785193273121</v>
+        <v>3258.061060135059</v>
       </c>
       <c r="Q26" t="n">
-        <v>3366.682115143643</v>
+        <v>3442.906620276008</v>
       </c>
       <c r="R26" t="n">
-        <v>3422.496622141656</v>
+        <v>3498.721127274021</v>
       </c>
       <c r="S26" t="n">
-        <v>3422.496622141656</v>
+        <v>3427.148253502261</v>
       </c>
       <c r="T26" t="n">
-        <v>3293.936700988261</v>
+        <v>3298.588332348866</v>
       </c>
       <c r="U26" t="n">
-        <v>3133.124652710048</v>
+        <v>3137.776284070653</v>
       </c>
       <c r="V26" t="n">
-        <v>2885.958524700755</v>
+        <v>2890.61015606136</v>
       </c>
       <c r="W26" t="n">
-        <v>2609.900170956231</v>
+        <v>2614.551802316835</v>
       </c>
       <c r="X26" t="n">
-        <v>2315.388247176476</v>
+        <v>2320.03987853708</v>
       </c>
       <c r="Y26" t="n">
-        <v>2183.096744343644</v>
+        <v>2141.224798825945</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855113</v>
       </c>
       <c r="C27" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456035</v>
       </c>
       <c r="D27" t="n">
-        <v>587.0727177644367</v>
+        <v>588.5972078670839</v>
       </c>
       <c r="E27" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779716</v>
       </c>
       <c r="F27" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611034</v>
       </c>
       <c r="G27" t="n">
-        <v>206.1346028303206</v>
+        <v>207.6590929329679</v>
       </c>
       <c r="H27" t="n">
-        <v>117.8371864309215</v>
+        <v>119.3616765335688</v>
       </c>
       <c r="I27" t="n">
-        <v>68.44993244283313</v>
+        <v>69.97442254548042</v>
       </c>
       <c r="J27" t="n">
-        <v>68.44993244283313</v>
+        <v>69.97442254548042</v>
       </c>
       <c r="K27" t="n">
-        <v>388.1890785050596</v>
+        <v>69.97442254548042</v>
       </c>
       <c r="L27" t="n">
-        <v>871.7551644033729</v>
+        <v>553.5405084437937</v>
       </c>
       <c r="M27" t="n">
-        <v>871.7551644033729</v>
+        <v>576.0252434482881</v>
       </c>
       <c r="N27" t="n">
-        <v>1464.64381611109</v>
+        <v>1231.803214658847</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.164098702072</v>
+        <v>1748.323497249828</v>
       </c>
       <c r="P27" t="n">
-        <v>2386.785467418469</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521116</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V27" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W27" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050965</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.4151716938178</v>
+        <v>500.9396617964649</v>
       </c>
       <c r="C28" t="n">
-        <v>424.1507350469954</v>
+        <v>425.6752251496425</v>
       </c>
       <c r="D28" t="n">
-        <v>363.4583032366984</v>
+        <v>364.9827933393456</v>
       </c>
       <c r="E28" t="n">
-        <v>302.8401723830896</v>
+        <v>304.3646624857364</v>
       </c>
       <c r="F28" t="n">
-        <v>240.4549188832507</v>
+        <v>241.9794089858977</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1415462698844</v>
+        <v>168.6660363725319</v>
       </c>
       <c r="H28" t="n">
-        <v>106.603676518567</v>
+        <v>108.1281666212142</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44993244283313</v>
+        <v>69.97442254548042</v>
       </c>
       <c r="J28" t="n">
-        <v>131.727551574969</v>
+        <v>133.2520416776163</v>
       </c>
       <c r="K28" t="n">
-        <v>306.6139544144837</v>
+        <v>308.1384445171315</v>
       </c>
       <c r="L28" t="n">
-        <v>563.7929560178566</v>
+        <v>565.3174461205045</v>
       </c>
       <c r="M28" t="n">
-        <v>843.1358960856937</v>
+        <v>844.6603861883417</v>
       </c>
       <c r="N28" t="n">
-        <v>1119.376891846476</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O28" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P28" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226557</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.534106223534</v>
+        <v>1686.058596326181</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.573798143299</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.698395613037</v>
+        <v>1549.222885715684</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700196</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W28" t="n">
-        <v>856.9935299239276</v>
+        <v>858.5180200265751</v>
       </c>
       <c r="X28" t="n">
-        <v>717.8538889940991</v>
+        <v>719.3783790967466</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.6825090979307</v>
+        <v>591.2069992005781</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1877.542679919435</v>
+        <v>1712.935786320661</v>
       </c>
       <c r="C29" t="n">
-        <v>1579.307859709554</v>
+        <v>1414.700966110779</v>
       </c>
       <c r="D29" t="n">
-        <v>1288.80741221341</v>
+        <v>1124.200518614635</v>
       </c>
       <c r="E29" t="n">
-        <v>981.1645686171432</v>
+        <v>816.5576750183679</v>
       </c>
       <c r="F29" t="n">
-        <v>659.2108114343093</v>
+        <v>617.3388659166098</v>
       </c>
       <c r="G29" t="n">
-        <v>340.9887372095009</v>
+        <v>299.1167916918014</v>
       </c>
       <c r="H29" t="n">
-        <v>111.8463680631799</v>
+        <v>69.97442254548042</v>
       </c>
       <c r="I29" t="n">
-        <v>68.44993244283313</v>
+        <v>69.97442254548042</v>
       </c>
       <c r="J29" t="n">
-        <v>213.0997053516612</v>
+        <v>214.6241954543085</v>
       </c>
       <c r="K29" t="n">
-        <v>572.082061379123</v>
+        <v>666.6579132113436</v>
       </c>
       <c r="L29" t="n">
-        <v>1065.402353097652</v>
+        <v>1209.919059970019</v>
       </c>
       <c r="M29" t="n">
-        <v>1611.403253142233</v>
+        <v>1755.9199600146</v>
       </c>
       <c r="N29" t="n">
-        <v>2232.265898509268</v>
+        <v>2376.782605381635</v>
       </c>
       <c r="O29" t="n">
-        <v>2672.305499401597</v>
+        <v>2816.822206273964</v>
       </c>
       <c r="P29" t="n">
-        <v>3113.544353262692</v>
+        <v>3258.061060135059</v>
       </c>
       <c r="Q29" t="n">
-        <v>3366.682115143643</v>
+        <v>3442.906620276008</v>
       </c>
       <c r="R29" t="n">
-        <v>3422.496622141656</v>
+        <v>3498.721127274021</v>
       </c>
       <c r="S29" t="n">
-        <v>3350.923748369895</v>
+        <v>3427.14825350226</v>
       </c>
       <c r="T29" t="n">
-        <v>3222.3638272165</v>
+        <v>3298.588332348865</v>
       </c>
       <c r="U29" t="n">
-        <v>3061.551778938287</v>
+        <v>3137.776284070652</v>
       </c>
       <c r="V29" t="n">
-        <v>3055.217049660133</v>
+        <v>2890.610156061358</v>
       </c>
       <c r="W29" t="n">
-        <v>2779.158695915609</v>
+        <v>2614.551802316834</v>
       </c>
       <c r="X29" t="n">
-        <v>2484.646772135854</v>
+        <v>2320.039878537079</v>
       </c>
       <c r="Y29" t="n">
-        <v>2183.096744343644</v>
+        <v>2018.489850744869</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855113</v>
       </c>
       <c r="C30" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456035</v>
       </c>
       <c r="D30" t="n">
-        <v>587.0727177644367</v>
+        <v>588.5972078670839</v>
       </c>
       <c r="E30" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779716</v>
       </c>
       <c r="F30" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611034</v>
       </c>
       <c r="G30" t="n">
-        <v>206.1346028303206</v>
+        <v>207.6590929329679</v>
       </c>
       <c r="H30" t="n">
-        <v>117.8371864309215</v>
+        <v>119.3616765335688</v>
       </c>
       <c r="I30" t="n">
-        <v>68.44993244283313</v>
+        <v>69.97442254548042</v>
       </c>
       <c r="J30" t="n">
-        <v>68.44993244283313</v>
+        <v>69.97442254548042</v>
       </c>
       <c r="K30" t="n">
-        <v>388.1890785050596</v>
+        <v>389.7135686077069</v>
       </c>
       <c r="L30" t="n">
-        <v>871.7551644033729</v>
+        <v>389.7135686077069</v>
       </c>
       <c r="M30" t="n">
-        <v>1230.2787245562</v>
+        <v>1017.485218234388</v>
       </c>
       <c r="N30" t="n">
-        <v>1230.2787245562</v>
+        <v>1231.803214658847</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.799007147181</v>
+        <v>1748.323497249828</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.420375863579</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521116</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V30" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W30" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050965</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.4151716938186</v>
+        <v>500.9396617964653</v>
       </c>
       <c r="C31" t="n">
-        <v>424.150735046996</v>
+        <v>425.6752251496432</v>
       </c>
       <c r="D31" t="n">
-        <v>363.4583032366991</v>
+        <v>364.9827933393462</v>
       </c>
       <c r="E31" t="n">
-        <v>302.8401723830898</v>
+        <v>304.3646624857367</v>
       </c>
       <c r="F31" t="n">
-        <v>240.4549188832509</v>
+        <v>241.9794089858981</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1415462698848</v>
+        <v>168.6660363725321</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6036765185669</v>
+        <v>108.1281666212142</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44993244283313</v>
+        <v>69.97442254548042</v>
       </c>
       <c r="J31" t="n">
-        <v>131.7275515749686</v>
+        <v>133.2520416776163</v>
       </c>
       <c r="K31" t="n">
-        <v>306.6139544144839</v>
+        <v>308.1384445171314</v>
       </c>
       <c r="L31" t="n">
-        <v>563.792956017857</v>
+        <v>565.3174461205042</v>
       </c>
       <c r="M31" t="n">
-        <v>843.1358960856944</v>
+        <v>844.6603861883414</v>
       </c>
       <c r="N31" t="n">
-        <v>1119.376891846477</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O31" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P31" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226557</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.534106223535</v>
+        <v>1686.058596326181</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.5737981433</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.698395613038</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.42191459755</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W31" t="n">
-        <v>856.9935299239281</v>
+        <v>858.5180200265752</v>
       </c>
       <c r="X31" t="n">
-        <v>717.8538889940996</v>
+        <v>719.3783790967466</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.6825090979314</v>
+        <v>591.2069992005783</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C32" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6722,28 +6722,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T32" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U32" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L33" t="n">
-        <v>865.4243596646552</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M33" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
         <v>1223.947919817482</v>
@@ -6850,28 +6850,28 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I34" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K34" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M34" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N34" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O34" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P34" t="n">
         <v>1094.779966106229</v>
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6941,13 +6941,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,10 +6956,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7087,7 +7087,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,25 +7096,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7157,13 +7157,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7196,7 +7196,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7333,19 +7333,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1663.891950012515</v>
+        <v>1428.779014516735</v>
       </c>
       <c r="C41" t="n">
-        <v>1384.213127087654</v>
+        <v>1144.120190589894</v>
       </c>
       <c r="D41" t="n">
-        <v>1112.268676876531</v>
+        <v>867.1957393767893</v>
       </c>
       <c r="E41" t="n">
-        <v>823.1818305652851</v>
+        <v>615.8837008044977</v>
       </c>
       <c r="F41" t="n">
-        <v>519.784070667472</v>
+        <v>307.5059399047037</v>
       </c>
       <c r="G41" t="n">
-        <v>272.7054995654157</v>
+        <v>307.5059399047037</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>91.93956704142253</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3047.959507717055</v>
       </c>
       <c r="T41" t="n">
-        <v>2995.952461337402</v>
+        <v>2932.9755828467</v>
       </c>
       <c r="U41" t="n">
-        <v>2995.952461337402</v>
+        <v>2785.739530851527</v>
       </c>
       <c r="V41" t="n">
-        <v>2767.342330613129</v>
+        <v>2552.149399125274</v>
       </c>
       <c r="W41" t="n">
-        <v>2509.839974153626</v>
+        <v>2289.667041663789</v>
       </c>
       <c r="X41" t="n">
-        <v>2233.884047658892</v>
+        <v>2008.731114167074</v>
       </c>
       <c r="Y41" t="n">
-        <v>1950.890017151703</v>
+        <v>1720.757082657904</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
         <v>1974.833293963354</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>363.1923859599544</v>
+        <v>398.0523929738216</v>
       </c>
       <c r="C43" t="n">
-        <v>306.4839465981528</v>
+        <v>336.363952610039</v>
       </c>
       <c r="D43" t="n">
-        <v>264.3475120728767</v>
+        <v>289.2475170827819</v>
       </c>
       <c r="E43" t="n">
-        <v>222.2853785042884</v>
+        <v>242.2053825122125</v>
       </c>
       <c r="F43" t="n">
-        <v>178.4561222894706</v>
+        <v>193.3961252954136</v>
       </c>
       <c r="G43" t="n">
-        <v>123.6987469611253</v>
+        <v>133.6587489650873</v>
       </c>
       <c r="H43" t="n">
-        <v>81.71687449482845</v>
+        <v>86.69687549680947</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>143.5834797753003</v>
+        <v>138.7025807932587</v>
       </c>
       <c r="K43" t="n">
-        <v>225.4185208852421</v>
+        <v>220.5376219032005</v>
       </c>
       <c r="L43" t="n">
-        <v>389.5461607590419</v>
+        <v>384.6652617770003</v>
       </c>
       <c r="M43" t="n">
-        <v>687.0758337659281</v>
+        <v>570.9568401152643</v>
       </c>
       <c r="N43" t="n">
-        <v>870.2654677971373</v>
+        <v>860.5036698330541</v>
       </c>
       <c r="O43" t="n">
-        <v>1144.208329507468</v>
+        <v>1124.974607436389</v>
       </c>
       <c r="P43" t="n">
-        <v>1375.322589952669</v>
+        <v>1351.207968899548</v>
       </c>
       <c r="Q43" t="n">
-        <v>1381.307344924483</v>
+        <v>1460.98736095618</v>
       </c>
       <c r="R43" t="n">
-        <v>1370.903034129269</v>
+        <v>1445.603049158985</v>
       </c>
       <c r="S43" t="n">
-        <v>1281.583628884028</v>
+        <v>1351.303642911762</v>
       </c>
       <c r="T43" t="n">
-        <v>1159.361255624471</v>
+        <v>1224.101268650224</v>
       </c>
       <c r="U43" t="n">
-        <v>987.4191424385814</v>
+        <v>1047.179154462354</v>
       </c>
       <c r="V43" t="n">
-        <v>834.9364758316148</v>
+        <v>889.7164868534061</v>
       </c>
       <c r="W43" t="n">
-        <v>665.1027523350016</v>
+        <v>714.9027623548119</v>
       </c>
       <c r="X43" t="n">
-        <v>544.5191086901939</v>
+        <v>589.3391177080232</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.9037260790465</v>
+        <v>474.7437340948946</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1610.875073525774</v>
+        <v>1486.775892005456</v>
       </c>
       <c r="C44" t="n">
-        <v>1331.196250600914</v>
+        <v>1202.117068078614</v>
       </c>
       <c r="D44" t="n">
-        <v>1059.251800389791</v>
+        <v>969.2098138589057</v>
       </c>
       <c r="E44" t="n">
-        <v>770.1649540785443</v>
+        <v>675.1429665456783</v>
       </c>
       <c r="F44" t="n">
-        <v>466.7671941807316</v>
+        <v>366.7652056458843</v>
       </c>
       <c r="G44" t="n">
-        <v>297.5459379007418</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>86.95956603944154</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3052.939508719036</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2942.935584850662</v>
+        <v>2990.972460335421</v>
       </c>
       <c r="U44" t="n">
-        <v>2942.935584850662</v>
+        <v>2843.736408340248</v>
       </c>
       <c r="V44" t="n">
-        <v>2714.325454126389</v>
+        <v>2610.146276613995</v>
       </c>
       <c r="W44" t="n">
-        <v>2456.823097666886</v>
+        <v>2347.663919152511</v>
       </c>
       <c r="X44" t="n">
-        <v>2180.867171172152</v>
+        <v>2066.727991655795</v>
       </c>
       <c r="Y44" t="n">
-        <v>1897.873140664962</v>
+        <v>1778.753960146624</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.1923859599545</v>
+        <v>398.0523929738218</v>
       </c>
       <c r="C46" t="n">
-        <v>306.483946598153</v>
+        <v>336.3639526100391</v>
       </c>
       <c r="D46" t="n">
-        <v>264.3475120728768</v>
+        <v>289.247517082782</v>
       </c>
       <c r="E46" t="n">
-        <v>222.2853785042885</v>
+        <v>242.2053825122127</v>
       </c>
       <c r="F46" t="n">
-        <v>178.4561222894706</v>
+        <v>193.3961252954137</v>
       </c>
       <c r="G46" t="n">
-        <v>123.6987469611253</v>
+        <v>133.6587489650874</v>
       </c>
       <c r="H46" t="n">
-        <v>81.71687449482847</v>
+        <v>86.6968754968095</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>138.7025807932586</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>326.8948175897811</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>592.7886280252083</v>
       </c>
       <c r="M46" t="n">
-        <v>578.4002976990703</v>
+        <v>779.0802063634723</v>
       </c>
       <c r="N46" t="n">
-        <v>872.8280263989018</v>
+        <v>1068.627036081262</v>
       </c>
       <c r="O46" t="n">
-        <v>1146.770888109232</v>
+        <v>1231.33180312297</v>
       </c>
       <c r="P46" t="n">
-        <v>1377.885148554433</v>
+        <v>1457.565164586129</v>
       </c>
       <c r="Q46" t="n">
-        <v>1381.307344924484</v>
+        <v>1460.98736095618</v>
       </c>
       <c r="R46" t="n">
-        <v>1370.90303412927</v>
+        <v>1445.603049158985</v>
       </c>
       <c r="S46" t="n">
-        <v>1281.583628884028</v>
+        <v>1351.303642911763</v>
       </c>
       <c r="T46" t="n">
-        <v>1159.361255624472</v>
+        <v>1224.101268650225</v>
       </c>
       <c r="U46" t="n">
-        <v>987.4191424385817</v>
+        <v>1047.179154462354</v>
       </c>
       <c r="V46" t="n">
-        <v>834.9364758316151</v>
+        <v>889.7164868534064</v>
       </c>
       <c r="W46" t="n">
-        <v>665.1027523350018</v>
+        <v>714.9027623548122</v>
       </c>
       <c r="X46" t="n">
-        <v>544.5191086901941</v>
+        <v>589.3391177080234</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.9037260790467</v>
+        <v>474.7437340948949</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>183.1679356791155</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>646.4691104827256</v>
       </c>
       <c r="M2" t="n">
-        <v>662.0021186330523</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>661.3955583731092</v>
+        <v>642.339432090018</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>205.5669988604865</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>604.664189084637</v>
+        <v>585.6080628015458</v>
       </c>
       <c r="N3" t="n">
-        <v>597.6491798894917</v>
+        <v>578.5930536064005</v>
       </c>
       <c r="O3" t="n">
-        <v>285.1242034222132</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>214.1565621793171</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,22 +8216,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>646.4691104827256</v>
       </c>
       <c r="M5" t="n">
-        <v>662.0021186330523</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>628.5310796433431</v>
+        <v>615.0476219875887</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>585.6080628015458</v>
       </c>
       <c r="N6" t="n">
-        <v>352.3461310604029</v>
+        <v>319.1984868750857</v>
       </c>
       <c r="O6" t="n">
-        <v>604.964625924214</v>
+        <v>585.9084996411228</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>251.5450406822918</v>
+        <v>363.2059172909298</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,22 +8529,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>279.5693555729968</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8769,19 +8769,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>510.5662141339224</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>112.3087888732267</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,25 +9243,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.0244253199895</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294519</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>461.5665676450056</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,10 +9714,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,7 +9726,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9954,16 +9954,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N27" t="n">
-        <v>684.2495388215582</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10194,13 +10194,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>301.8549375253374</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10589,7 +10589,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>651.5514946987026</v>
+        <v>651.5514946987036</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,22 +11136,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9919810238538</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11376,25 +11376,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>459.8553156798577</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7170059000185</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414356</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.02253917081748</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.0694275749092</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.35770615252719</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>167.5659397097852</v>
+        <v>121.5075986002655</v>
       </c>
     </row>
     <row r="27">
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>121.507598600265</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>238.4230847438271</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25634,19 +25634,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>42.32726065352722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>52.06163077935366</v>
+        <v>301.599617162351</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>24.59203395197272</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.48670772187285</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>140.8334904832603</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>43.57702502346174</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>129.1403724531992</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>213.4107091346484</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.52223494393396</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.41690871383409</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>140.8334904832603</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755746.8221711976</v>
+        <v>754596.1401214974</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755746.8221711976</v>
+        <v>754596.1401214974</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725478.3434254129</v>
+        <v>725478.3434254128</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>767816.9595248749</v>
+        <v>767816.959524875</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>749312.9439179065</v>
+        <v>755052.4374026982</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>749312.9439179066</v>
+        <v>755052.4374026983</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>746864.2880223764</v>
+        <v>741124.7945375846</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>746864.2880223764</v>
+        <v>741124.7945375848</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559029.7520894059</v>
+        <v>559029.752089406</v>
       </c>
       <c r="C2" t="n">
         <v>559029.7520894059</v>
       </c>
       <c r="D2" t="n">
-        <v>559029.752089406</v>
+        <v>559029.7520894059</v>
       </c>
       <c r="E2" t="n">
-        <v>525375.9803180384</v>
+        <v>525375.9803180383</v>
       </c>
       <c r="F2" t="n">
-        <v>525375.9803180384</v>
+        <v>525375.9803180385</v>
       </c>
       <c r="G2" t="n">
-        <v>559029.7520894062</v>
+        <v>559029.7520894064</v>
       </c>
       <c r="H2" t="n">
-        <v>559029.7520894072</v>
+        <v>559029.7520894065</v>
       </c>
       <c r="I2" t="n">
-        <v>559029.7520894062</v>
+        <v>559029.7520894066</v>
       </c>
       <c r="J2" t="n">
-        <v>544321.4319915596</v>
+        <v>548883.5934794717</v>
       </c>
       <c r="K2" t="n">
-        <v>544321.4319915596</v>
+        <v>548883.5934794709</v>
       </c>
       <c r="L2" t="n">
         <v>559029.7520894064</v>
       </c>
       <c r="M2" t="n">
-        <v>559029.7520894064</v>
+        <v>559029.7520894065</v>
       </c>
       <c r="N2" t="n">
         <v>559029.7520894065</v>
       </c>
       <c r="O2" t="n">
-        <v>542375.0644848553</v>
+        <v>537812.9029969447</v>
       </c>
       <c r="P2" t="n">
-        <v>542375.0644848556</v>
+        <v>537812.9029969448</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171675.8275360792</v>
+        <v>165289.6813277109</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24581.72344984808</v>
+        <v>30501.12795716471</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301433</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720423</v>
+        <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602862</v>
+        <v>58189.91174602866</v>
       </c>
       <c r="M3" t="n">
         <v>46121.92123989166</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31699.45768316102</v>
+        <v>27755.29688959202</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228125.0593031787</v>
+        <v>232110.1824848078</v>
       </c>
       <c r="C4" t="n">
-        <v>228125.0593031788</v>
+        <v>232110.1824848078</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26430,19 +26430,19 @@
         <v>161760.5563326216</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="H4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="J4" t="n">
-        <v>176034.0942198338</v>
+        <v>179471.2350158116</v>
       </c>
       <c r="K4" t="n">
-        <v>176034.0942198338</v>
+        <v>179471.2350158117</v>
       </c>
       <c r="L4" t="n">
         <v>186364.8769761035</v>
@@ -26454,10 +26454,10 @@
         <v>186364.8769761035</v>
       </c>
       <c r="O4" t="n">
-        <v>174187.3867511901</v>
+        <v>170852.3125438946</v>
       </c>
       <c r="P4" t="n">
-        <v>174187.3867511901</v>
+        <v>170852.3125438946</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64774.04567574777</v>
+        <v>63615.43319773582</v>
       </c>
       <c r="C5" t="n">
-        <v>64774.04567574777</v>
+        <v>63615.43319773582</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,34 +26482,34 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>59923.70111033448</v>
+        <v>61082.31358834643</v>
       </c>
       <c r="K5" t="n">
-        <v>59923.70111033448</v>
+        <v>61082.31358834643</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>56656.67380330598</v>
+        <v>56242.19673611279</v>
       </c>
       <c r="P5" t="n">
-        <v>56656.67380330598</v>
+        <v>56242.19673611279</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94454.81957440017</v>
+        <v>98014.45507915156</v>
       </c>
       <c r="C6" t="n">
-        <v>266130.6471104793</v>
+        <v>263304.1364068623</v>
       </c>
       <c r="D6" t="n">
-        <v>253286.6760575944</v>
+        <v>247367.2715502777</v>
       </c>
       <c r="E6" t="n">
-        <v>178050.2033387955</v>
+        <v>177941.6427846941</v>
       </c>
       <c r="F6" t="n">
-        <v>308503.1344765077</v>
+        <v>308394.5739224066</v>
       </c>
       <c r="G6" t="n">
         <v>285400.1499247688</v>
       </c>
       <c r="H6" t="n">
-        <v>314495.105797784</v>
+        <v>314495.1057977833</v>
       </c>
       <c r="I6" t="n">
-        <v>314495.1057977831</v>
+        <v>314495.1057977834</v>
       </c>
       <c r="J6" t="n">
-        <v>107526.138589349</v>
+        <v>107459.8172593685</v>
       </c>
       <c r="K6" t="n">
-        <v>308363.6366613912</v>
+        <v>308297.3153314098</v>
       </c>
       <c r="L6" t="n">
         <v>256305.1940517545</v>
       </c>
       <c r="M6" t="n">
-        <v>268373.1845578915</v>
+        <v>268373.1845578916</v>
       </c>
       <c r="N6" t="n">
         <v>314495.1057977833</v>
       </c>
       <c r="O6" t="n">
-        <v>279831.5462471981</v>
+        <v>282894.65537866</v>
       </c>
       <c r="P6" t="n">
-        <v>311531.0039303595</v>
+        <v>310649.9522682521</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="F2" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="F2" t="n">
-        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,10 +26707,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="P2" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353251</v>
+        <v>493.2209407522339</v>
       </c>
       <c r="C4" t="n">
-        <v>512.2770670353251</v>
+        <v>493.2209407522339</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,25 +26802,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>855.624155535414</v>
+        <v>874.6802818185053</v>
       </c>
       <c r="K4" t="n">
-        <v>855.624155535414</v>
+        <v>874.6802818185053</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253578</v>
+        <v>72.73738968253582</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.62432210395127</v>
+        <v>34.69412111199003</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353251</v>
+        <v>493.2209407522339</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79.13505923396993</v>
+        <v>98.19118551706117</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692952</v>
+        <v>591.412126269295</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>2.842170943040401e-14</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>512.2770670353251</v>
+        <v>493.2209407522339</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>79.13505923396993</v>
+        <v>98.19118551706117</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>331.4793830458033</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>370.3124512957972</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>51.94029444272293</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>81.63429352254983</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>81.52110699009283</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27555,10 +27555,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>13.3846579637067</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>145.8156280511788</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.5434778964706</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27673,16 +27673,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>149.8480948751437</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>160.7457511419665</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>193.6465134776315</v>
       </c>
       <c r="U7" t="n">
-        <v>7.657574321493883</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27853,13 +27853,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>29.72931449898977</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>229.465722175</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.83064772952768</v>
+        <v>149.2534355460791</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28059,13 +28059,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28597,7 +28597,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28743,19 +28743,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>35.7104901066881</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K19" t="n">
-        <v>35.71049010668865</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5.636002634529518</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29059,7 +29059,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29226,22 +29226,22 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>128.2979821082779</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29302,46 +29302,46 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>50.44530812136043</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>68.98202195959857</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>50.44530812136031</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.98202195959851</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29928,7 +29928,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29943,10 +29943,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>5.636002634529063</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30168,28 +30168,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="C41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="D41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="E41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="F41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="G41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="H41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="I41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="T41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="U41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="V41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="W41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="X41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="C43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="D43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="E43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="F43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="G43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="H43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="I43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="J43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,43 +30648,43 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>112.3617117864871</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="O43" t="n">
-        <v>112.3617117864871</v>
+        <v>102.7941116784108</v>
       </c>
       <c r="P43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.588443032084597</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="R43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="S43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="T43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="U43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="V43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="W43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="X43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945259</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="C44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="D44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="E44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="F44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="G44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="H44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="I44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="T44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="U44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="V44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="W44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="X44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="C46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="D46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="E46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="F46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="G46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="H46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="I46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>102.7941116784115</v>
       </c>
       <c r="M46" t="n">
-        <v>84.87566734641319</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="O46" t="n">
-        <v>112.3617117864871</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="S46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="T46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="U46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="V46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="W46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="X46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945258</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>65.48809773676936</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>493.2209407522339</v>
       </c>
       <c r="M2" t="n">
-        <v>512.2770670353251</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>512.2770670353251</v>
+        <v>493.2209407522339</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.06830044209438</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>512.2770670353251</v>
+        <v>493.2209407522339</v>
       </c>
       <c r="N3" t="n">
-        <v>512.2770670353251</v>
+        <v>493.2209407522339</v>
       </c>
       <c r="O3" t="n">
-        <v>192.4366445333243</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>127.0731973600025</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>493.2209407522339</v>
       </c>
       <c r="M5" t="n">
-        <v>512.2770670353251</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>479.412588305559</v>
+        <v>465.9291306498046</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>493.2209407522339</v>
       </c>
       <c r="N6" t="n">
-        <v>266.9740182062362</v>
+        <v>233.826374020919</v>
       </c>
       <c r="O6" t="n">
-        <v>512.2770670353251</v>
+        <v>493.2209407522339</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>98.29687095180005</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>189.5090087160786</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35489,19 +35489,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>425.1941012797557</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>22.71185353989334</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35963,25 +35963,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>633.6373032706776</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>5.63600263452903</v>
       </c>
       <c r="K19" t="n">
-        <v>118.3721477934986</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>374.483202825691</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724877</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>601.9613687724519</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>420.6865594661863</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N27" t="n">
-        <v>598.8774259673916</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>548.7486330895713</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>255.6947089706576</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698323</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215744</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271085</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
         <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.448038484469</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37239,10 +37239,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>126.7230387724872</v>
+        <v>156.7975262446462</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,16 +37464,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832366</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37716,7 +37716,7 @@
         <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>484.6198681696871</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>82.28722431432803</v>
+        <v>77.35702332236681</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,19 +37944,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>300.535023239279</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>292.4715451694847</v>
       </c>
       <c r="O43" t="n">
-        <v>276.7099613235659</v>
+        <v>267.1423612154896</v>
       </c>
       <c r="P43" t="n">
-        <v>233.4487479244453</v>
+        <v>228.518546932484</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.04520704223708</v>
+        <v>110.8882748046784</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>374.483202825691</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>77.35702332236679</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>190.0931684813358</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>268.5796065004315</v>
       </c>
       <c r="M46" t="n">
-        <v>273.0489787992051</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>297.4017461614459</v>
+        <v>292.4715451694847</v>
       </c>
       <c r="O46" t="n">
-        <v>276.7099613235659</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>233.4487479244452</v>
+        <v>228.518546932484</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
